--- a/doc/开发任务清单V0.2.xlsx
+++ b/doc/开发任务清单V0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262C843-8D89-43FF-9409-297518693603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C381A-12F8-4E9C-9607-253E293A7334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="585" windowWidth="25185" windowHeight="15015" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>预估工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,22 +406,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>问题管理开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和后端同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景图联系UI设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按需求开发问题管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>责任人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +435,10 @@
   </si>
   <si>
     <t>子域名申请和备案问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林伟群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8A4B2-F4F3-4805-B955-841EDD35F895}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>45</v>
@@ -957,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G2" s="7">
         <v>44673</v>
@@ -978,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G3" s="7">
         <v>44673</v>
@@ -999,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7">
         <v>44673</v>
@@ -1020,7 +1012,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7">
         <v>44680</v>
@@ -1041,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G6" s="7">
         <v>44680</v>
@@ -1062,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7">
         <v>44688</v>
@@ -1083,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G8" s="7">
         <v>44688</v>
@@ -1104,7 +1096,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9" s="7">
         <v>44688</v>
@@ -1125,7 +1117,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7">
         <v>44695</v>
@@ -1146,7 +1138,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7">
         <v>44695</v>
@@ -1167,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G12" s="7">
         <v>44695</v>
@@ -1188,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7">
         <v>44700</v>
@@ -1209,7 +1201,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7">
         <v>44700</v>
@@ -1232,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7">
         <v>44672</v>
@@ -1253,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7">
         <v>44675</v>
@@ -1274,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7">
         <v>44676</v>
@@ -1295,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7">
         <v>44677</v>
@@ -1316,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7">
         <v>44679</v>
@@ -1337,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7">
         <v>44687</v>
@@ -1358,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7">
         <v>44690</v>
@@ -1379,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7">
         <v>44691</v>
@@ -1400,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7">
         <v>44692</v>
@@ -1421,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="7">
         <v>44692</v>
@@ -1442,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7">
         <v>44693</v>
@@ -1463,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7">
         <v>44695</v>
@@ -1484,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" s="7">
         <v>44698</v>
@@ -1505,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7">
         <v>44699</v>
@@ -1526,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7">
         <v>44700</v>
@@ -1549,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G30" s="7">
         <v>44669</v>
@@ -1570,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G31" s="7">
         <v>44669</v>
@@ -1591,7 +1583,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32" s="7">
         <v>44670</v>
@@ -1612,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G33" s="7">
         <v>44673</v>
@@ -1633,7 +1625,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G34" s="7">
         <v>44690</v>
@@ -1654,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G35" s="7">
         <v>44693</v>
@@ -1675,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7">
         <v>44695</v>
@@ -1696,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7">
         <v>44699</v>
@@ -1717,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7">
         <v>44676</v>
@@ -1738,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G39" s="7">
         <v>44676</v>
@@ -1759,26 +1751,28 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G40" s="7">
         <v>44676</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E41" s="1">
         <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G41" s="7">
         <v>44701</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
@@ -1799,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G42" s="7">
         <v>44680</v>
@@ -1807,20 +1801,20 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1">
         <v>16</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G43" s="7">
         <v>44699</v>
@@ -1828,20 +1822,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1">
         <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G44" s="7">
         <v>44699</v>
@@ -1849,20 +1843,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G45" s="7">
         <v>44700</v>
@@ -1870,50 +1864,305 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G46" s="7">
-        <v>44691</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="1">
-        <v>160</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="B15:B29"/>
-    <mergeCell ref="B30:B45"/>
-    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B30:B46"/>
+    <mergeCell ref="B47:B62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/开发任务清单V0.2.xlsx
+++ b/doc/开发任务清单V0.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C381A-12F8-4E9C-9607-253E293A7334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833DBF9A-438A-4E55-829B-B96504051DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
   <si>
     <t>预估工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业微信通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题微信通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,10 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将EFCore改为SqlSuger中间件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择.NET6+Furion+Admin.NET基础模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李露露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李聪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,6 +427,58 @@
   </si>
   <si>
     <t>林伟群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员问题复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决版本维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题解决时关联的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业微信通知，提供发送接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击问题通知，链接到问题页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFCore中间件接入原生SQL查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业微信扫码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB端企业微信扫码登录对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余鑫耸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎页导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统登录的第一页，快捷入口导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8A4B2-F4F3-4805-B955-841EDD35F895}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,22 +954,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -937,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G2" s="7">
         <v>44673</v>
@@ -961,16 +1001,16 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G3" s="7">
         <v>44673</v>
@@ -982,16 +1022,16 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7">
         <v>44673</v>
@@ -1003,16 +1043,16 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7">
         <v>44680</v>
@@ -1027,13 +1067,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7">
         <v>44680</v>
@@ -1045,16 +1085,16 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G7" s="7">
         <v>44688</v>
@@ -1075,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7">
         <v>44688</v>
@@ -1096,7 +1136,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7">
         <v>44688</v>
@@ -1108,16 +1148,16 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7">
         <v>44695</v>
@@ -1129,16 +1169,16 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7">
         <v>44695</v>
@@ -1150,16 +1190,16 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7">
         <v>44695</v>
@@ -1171,16 +1211,16 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7">
         <v>44700</v>
@@ -1190,18 +1230,18 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7">
         <v>44700</v>
@@ -1211,23 +1251,21 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
+      <c r="B15" s="9"/>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G15" s="7">
-        <v>44672</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,41 +1273,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E16" s="1">
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7">
-        <v>44675</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7">
-        <v>44676</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1278,19 +1318,19 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7">
-        <v>44677</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1299,19 +1339,19 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7">
-        <v>44679</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1320,19 +1360,19 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7">
-        <v>44687</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1341,19 +1381,19 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7">
-        <v>44690</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1362,19 +1402,19 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7">
-        <v>44691</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,19 +1423,19 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7">
-        <v>44692</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1404,19 +1444,19 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24" s="7">
-        <v>44692</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1425,7 +1465,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>61</v>
@@ -1434,10 +1474,10 @@
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7">
-        <v>44693</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1445,20 +1485,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="5" t="s">
-        <v>30</v>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7">
-        <v>44695</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1467,19 +1507,19 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G27" s="7">
-        <v>44698</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1488,63 +1528,61 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7">
-        <v>44699</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7">
-        <v>44700</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1">
         <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7">
-        <v>44669</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1553,61 +1591,63 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G31" s="7">
-        <v>44669</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G32" s="7">
-        <v>44670</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G33" s="7">
-        <v>44673</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1616,19 +1656,19 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1">
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7">
-        <v>44690</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1637,19 +1677,19 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G35" s="7">
-        <v>44693</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1658,19 +1698,19 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E36" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G36" s="7">
-        <v>44695</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,19 +1719,19 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G37" s="7">
-        <v>44699</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1700,19 +1740,19 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G38" s="7">
-        <v>44676</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1721,19 +1761,19 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G39" s="7">
-        <v>44676</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1742,19 +1782,19 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G40" s="7">
-        <v>44676</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1763,19 +1803,19 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" s="7">
-        <v>44701</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,19 +1824,19 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G42" s="7">
-        <v>44680</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,19 +1845,19 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" s="7">
-        <v>44699</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1826,19 +1866,19 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" s="7">
-        <v>44699</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,111 +1887,127 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G45" s="7">
-        <v>44700</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1">
         <v>16</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G46" s="7">
-        <v>44700</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E47" s="1">
+        <v>16</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="G47" s="7">
+        <v>44699</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G48" s="7">
+        <v>44700</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E49" s="1">
+        <v>16</v>
+      </c>
       <c r="F49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G49" s="7">
+        <v>44700</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G50" s="7">
+        <v>44694</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -1959,16 +2015,20 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G51" s="7">
+        <v>44694</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -1976,16 +2036,20 @@
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44694</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -1993,33 +2057,41 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G53" s="7">
+        <v>44699</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G54" s="7">
+        <v>44699</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -2027,16 +2099,20 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G55" s="7">
+        <v>44701</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -2044,16 +2120,20 @@
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E56" s="1">
+        <v>12</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G56" s="7">
+        <v>44701</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -2061,108 +2141,237 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G57" s="7">
+        <v>44701</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="2" t="s">
-        <v>30</v>
+      <c r="C58" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G58" s="7">
+        <v>44705</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G59" s="7">
+        <v>44705</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
       <c r="F60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G60" s="7">
+        <v>44705</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="G61" s="7">
+        <v>44705</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="1">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="7">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="1">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="7">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="7">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G62" s="1"/>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="7">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="7">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="7">
+        <v>44712</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B15:B29"/>
-    <mergeCell ref="B30:B46"/>
-    <mergeCell ref="B47:B62"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="B33:B49"/>
+    <mergeCell ref="B50:B67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/开发任务清单V0.2.xlsx
+++ b/doc/开发任务清单V0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833DBF9A-438A-4E55-829B-B96504051DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFC0DBD-2FF0-4C9F-B744-8776C894AF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>预估工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -479,6 +479,26 @@
   </si>
   <si>
     <t>系统登录的第一页，快捷入口导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题新增\编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业微信免登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机端进入问题管理免登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录同步到问题系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8A4B2-F4F3-4805-B955-841EDD35F895}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:G67"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1269,15 +1289,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1">
         <v>16</v>
@@ -1286,147 +1304,145 @@
         <v>109</v>
       </c>
       <c r="G16" s="7">
-        <v>44701</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7">
-        <v>44672</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E18" s="1">
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7">
-        <v>44675</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="7">
-        <v>44676</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G20" s="7">
-        <v>44677</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="7">
-        <v>44679</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G22" s="7">
-        <v>44687</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>16</v>
@@ -1435,82 +1451,82 @@
         <v>93</v>
       </c>
       <c r="G23" s="7">
-        <v>44690</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G24" s="7">
-        <v>44691</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G25" s="7">
-        <v>44692</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G26" s="7">
-        <v>44692</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -1524,14 +1540,14 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -1540,231 +1556,231 @@
         <v>93</v>
       </c>
       <c r="G28" s="7">
-        <v>44693</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="5" t="s">
-        <v>29</v>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E29" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G29" s="7">
-        <v>44695</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="7">
-        <v>44698</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
+      <c r="C31" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G31" s="7">
-        <v>44699</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E32" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G32" s="7">
-        <v>44700</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E33" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="7">
-        <v>44669</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="7">
-        <v>44669</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G35" s="7">
-        <v>44670</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G36" s="7">
-        <v>44673</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G37" s="7">
-        <v>44690</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G38" s="7">
-        <v>44693</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E39" s="1">
         <v>16</v>
@@ -1773,19 +1789,19 @@
         <v>94</v>
       </c>
       <c r="G39" s="7">
-        <v>44695</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="1">
         <v>16</v>
@@ -1794,61 +1810,61 @@
         <v>94</v>
       </c>
       <c r="G40" s="7">
-        <v>44699</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G41" s="7">
-        <v>44676</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G42" s="7">
-        <v>44676</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -1862,35 +1878,35 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G44" s="7">
-        <v>44701</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -1899,82 +1915,82 @@
         <v>94</v>
       </c>
       <c r="G45" s="7">
-        <v>44680</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E46" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G46" s="7">
-        <v>44699</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E47" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G47" s="7">
-        <v>44699</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G48" s="7">
-        <v>44700</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="9"/>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E49" s="1">
         <v>16</v>
@@ -1983,63 +1999,63 @@
         <v>94</v>
       </c>
       <c r="G49" s="7">
-        <v>44700</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>89</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G50" s="7">
-        <v>44694</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="10"/>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="E51" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G51" s="7">
-        <v>44694</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1">
         <v>8</v>
@@ -2053,14 +2069,14 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1">
         <v>8</v>
@@ -2069,40 +2085,40 @@
         <v>98</v>
       </c>
       <c r="G53" s="7">
-        <v>44699</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>17</v>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E54" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G54" s="7">
-        <v>44699</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1">
         <v>8</v>
@@ -2111,19 +2127,19 @@
         <v>98</v>
       </c>
       <c r="G55" s="7">
-        <v>44701</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="11"/>
-      <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E56" s="1">
         <v>12</v>
@@ -2132,22 +2148,22 @@
         <v>98</v>
       </c>
       <c r="G56" s="7">
-        <v>44701</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>98</v>
@@ -2158,56 +2174,56 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G58" s="7">
-        <v>44705</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="1" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G59" s="7">
-        <v>44705</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E60" s="1">
         <v>4</v>
@@ -2216,19 +2232,19 @@
         <v>98</v>
       </c>
       <c r="G60" s="7">
-        <v>44705</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" s="1">
         <v>4</v>
@@ -2237,43 +2253,43 @@
         <v>98</v>
       </c>
       <c r="G61" s="7">
-        <v>44705</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E62" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G62" s="7">
-        <v>44705</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="2" t="s">
-        <v>29</v>
+      <c r="C63" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E63" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>98</v>
@@ -2284,56 +2300,56 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="2" t="s">
-        <v>110</v>
+      <c r="C64" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E64" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G64" s="7">
-        <v>44712</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E65" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G65" s="7">
-        <v>44712</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E66" s="1">
         <v>4</v>
@@ -2342,19 +2358,19 @@
         <v>98</v>
       </c>
       <c r="G66" s="7">
-        <v>44712</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1">
         <v>4</v>
@@ -2363,15 +2379,57 @@
         <v>98</v>
       </c>
       <c r="G67" s="7">
-        <v>44712</v>
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="7">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="7">
+        <v>44725</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="B33:B49"/>
-    <mergeCell ref="B50:B67"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="B35:B51"/>
+    <mergeCell ref="B52:B69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
